--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2750.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2750.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160102464560985</v>
+        <v>1.74005651473999</v>
       </c>
       <c r="B1">
-        <v>2.420063726864457</v>
+        <v>2.359943628311157</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.561846256256104</v>
       </c>
       <c r="D1">
-        <v>2.365146379777474</v>
+        <v>3.302919387817383</v>
       </c>
       <c r="E1">
-        <v>1.221955531936223</v>
+        <v>1.481994032859802</v>
       </c>
     </row>
   </sheetData>
